--- a/capiq_data/in_process_data/IQ109450.xlsx
+++ b/capiq_data/in_process_data/IQ109450.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378600E7-13A4-4595-8395-B19DF0E09B38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE134D4-1697-452A-A20E-32FC3F6B7B26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"add6425b-1b8c-46e6-bb0c-830ab160351b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"2b3fc8b4-c5e3-434a-9b4c-e497459088f4"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$74</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$74</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$74</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$74</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$74</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$74</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$74</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$74</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$74</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$74</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$74</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$74</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$74</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$74</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$74</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$74</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$74</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$74</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$74</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$74</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$74</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$74</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$74</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$74</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$74</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$74</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,102 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +829,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>37621</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>8.9469999999999992</v>
+        <v>-11.955679999999999</v>
       </c>
       <c r="D2">
-        <v>38.604999999999997</v>
+        <v>5.5878399999999999</v>
       </c>
       <c r="E2">
-        <v>25.681999999999999</v>
+        <v>3.0893799999999998</v>
       </c>
       <c r="F2">
-        <v>21.937999999999999</v>
+        <v>-4.3393100000000002</v>
       </c>
       <c r="G2">
-        <v>182.19200000000001</v>
+        <v>28.941320000000001</v>
       </c>
       <c r="H2">
-        <v>299.52100000000002</v>
+        <v>39.43674</v>
       </c>
       <c r="I2">
-        <v>12.068</v>
+        <v>4.75169</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +868,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>30.158999999999999</v>
+        <v>11.2643</v>
       </c>
       <c r="O2">
-        <v>34.729999999999997</v>
+        <v>11.2643</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.248999999999999</v>
+        <v>6.7147399999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>37621</v>
       </c>
       <c r="S2">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>264.791</v>
+        <v>28.172450000000001</v>
       </c>
       <c r="U2">
-        <v>124.994</v>
+        <v>12.21701</v>
       </c>
       <c r="V2">
-        <v>22.562999999999999</v>
+        <v>0.98672000000000004</v>
       </c>
       <c r="W2">
-        <v>-2.5910000000000002</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-5.9379999999999997</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.071</v>
+        <v>8.3035899999999998</v>
       </c>
       <c r="AA2">
-        <v>8.9469999999999992</v>
+        <v>-11.955679999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37711</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>10.78</v>
+        <v>-1.72437</v>
       </c>
       <c r="D3">
-        <v>43.609000000000002</v>
+        <v>10.742660000000001</v>
       </c>
       <c r="E3">
-        <v>30.064</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>24.841000000000001</v>
+        <v>3.6407500000000002</v>
       </c>
       <c r="G3">
-        <v>179.834</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>303.73</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>11.695</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -855,75 +951,75 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.667000000000002</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>22.346</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>-8.4269999999999996</v>
+        <v>-3.9726499999999998</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37711</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>281.38400000000001</v>
+        <v>28.172450000000001</v>
       </c>
       <c r="U3">
-        <v>116.56699999999999</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1.0660000000000001</v>
+        <v>-4.6643100000000004</v>
       </c>
       <c r="W3">
-        <v>-3.3879999999999999</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-0.436</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-7.2939999999999996</v>
+        <v>1.0012700000000001</v>
       </c>
       <c r="AA3">
-        <v>10.78</v>
+        <v>-1.72437</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37802</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>11.936999999999999</v>
+        <v>1.6238600000000001</v>
       </c>
       <c r="D4">
-        <v>45.790999999999997</v>
+        <v>13.74152</v>
       </c>
       <c r="E4">
-        <v>34.494</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>27.963000000000001</v>
+        <v>5.5168799999999996</v>
       </c>
       <c r="G4">
-        <v>203.96600000000001</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>321.267</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>11.936</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +1034,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.966999999999999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>28.41</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>19.201000000000001</v>
+        <v>3.0992700000000002</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37802</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>292.85700000000003</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>135.768</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>18.343</v>
+        <v>5.5135500000000004</v>
       </c>
       <c r="W4">
-        <v>-3.4159999999999999</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-1.6479999999999999</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>4.6109999999999998</v>
+        <v>-1.4851399999999999</v>
       </c>
       <c r="AA4">
-        <v>11.936999999999999</v>
+        <v>8.1970000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37894</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>13.444000000000001</v>
+        <v>2.6321099999999999</v>
       </c>
       <c r="D5">
-        <v>46.564</v>
+        <v>16.724</v>
       </c>
       <c r="E5">
-        <v>31.858000000000001</v>
+        <v>9.61951</v>
       </c>
       <c r="F5">
-        <v>30.085000000000001</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="G5">
-        <v>221.78800000000001</v>
+        <v>39.823219999999999</v>
       </c>
       <c r="H5">
-        <v>339.2</v>
+        <v>49.17548</v>
       </c>
       <c r="I5">
-        <v>12.657999999999999</v>
+        <v>14.055870000000001</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1117,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28.33</v>
+        <v>14.055870000000001</v>
       </c>
       <c r="O5">
-        <v>33.366999999999997</v>
+        <v>14.055870000000001</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>21.853999999999999</v>
+        <v>0.37806000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37894</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>305.83300000000003</v>
+        <v>35.119610000000002</v>
       </c>
       <c r="U5">
-        <v>157.62200000000001</v>
+        <v>11.721690000000001</v>
       </c>
       <c r="V5">
-        <v>27.382000000000001</v>
+        <v>6.5581100000000001</v>
       </c>
       <c r="W5">
-        <v>-3.4319999999999999</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-2.4369999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-4.1909999999999998</v>
+        <v>-4.9954200000000002</v>
       </c>
       <c r="AA5">
-        <v>13.444000000000001</v>
+        <v>4.1740000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37986</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>11.542999999999999</v>
+        <v>1.6803999999999999</v>
       </c>
       <c r="D6">
-        <v>45.134999999999998</v>
+        <v>17.251819999999999</v>
       </c>
       <c r="E6">
-        <v>36.015000000000001</v>
+        <v>9.0630000000000006</v>
       </c>
       <c r="F6">
-        <v>28.512</v>
+        <v>8.8073700000000006</v>
       </c>
       <c r="G6">
-        <v>245.809</v>
+        <v>46.164999999999999</v>
       </c>
       <c r="H6">
-        <v>349.45800000000003</v>
+        <v>57.183</v>
       </c>
       <c r="I6">
-        <v>12.268000000000001</v>
+        <v>4.3819999999999997</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,75 +1200,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>31.693000000000001</v>
+        <v>14.117000000000001</v>
       </c>
       <c r="O6">
-        <v>37.018999999999998</v>
+        <v>17.788</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.997999999999999</v>
+        <v>8.8703199999999995</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37986</v>
       </c>
       <c r="S6">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="T6">
-        <v>312.43900000000002</v>
+        <v>39.395000000000003</v>
       </c>
       <c r="U6">
-        <v>169.62</v>
+        <v>20.591000000000001</v>
       </c>
       <c r="V6">
-        <v>18.687000000000001</v>
+        <v>9.5066500000000005</v>
       </c>
       <c r="W6">
-        <v>-3.4470000000000001</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-6.6779999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.9910000000000001</v>
+        <v>1.47729</v>
       </c>
       <c r="AA6">
-        <v>11.542999999999999</v>
+        <v>1.6803999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38077</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>13.493</v>
+        <v>2.9159999999999999</v>
       </c>
       <c r="D7">
-        <v>50.734999999999999</v>
+        <v>19.172000000000001</v>
       </c>
       <c r="E7">
-        <v>33.039000000000001</v>
+        <v>11.38326</v>
       </c>
       <c r="F7">
-        <v>31.939</v>
+        <v>9.4149999999999991</v>
       </c>
       <c r="G7">
-        <v>173.053</v>
+        <v>43.266039999999997</v>
       </c>
       <c r="H7">
-        <v>274.51</v>
+        <v>56.069049999999997</v>
       </c>
       <c r="I7">
-        <v>14.247</v>
+        <v>3.8072900000000001</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,75 +1283,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.364000000000001</v>
+        <v>6.8429399999999996</v>
       </c>
       <c r="O7">
-        <v>25.593</v>
+        <v>10.72702</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-49.811</v>
+        <v>-7.63</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38077</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="T7">
-        <v>248.917</v>
+        <v>45.342030000000001</v>
       </c>
       <c r="U7">
-        <v>119.809</v>
+        <v>12.959989999999999</v>
       </c>
       <c r="V7">
-        <v>13.374000000000001</v>
+        <v>-3.8159999999999998</v>
       </c>
       <c r="W7">
-        <v>-4.2009999999999996</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-78.718000000000004</v>
+        <v>2E-3</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>17.824999999999999</v>
+        <v>-1.9810000000000001</v>
       </c>
       <c r="AA7">
-        <v>13.493</v>
+        <v>2.9159999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38168</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>43.052</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>18.234000000000002</v>
       </c>
       <c r="E8">
-        <v>33.209000000000003</v>
+        <v>11.048349999999999</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>8.2420000000000009</v>
       </c>
       <c r="G8">
-        <v>189.018</v>
+        <v>49.151719999999997</v>
       </c>
       <c r="H8">
-        <v>289.72800000000001</v>
+        <v>91.841499999999996</v>
       </c>
       <c r="I8">
-        <v>12.164</v>
+        <v>4.5157299999999996</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,75 +1366,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.867000000000001</v>
+        <v>13.928459999999999</v>
       </c>
       <c r="O8">
-        <v>27.992999999999999</v>
+        <v>14.2842</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>6.2809999999999997</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38168</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="T8">
-        <v>261.73500000000001</v>
+        <v>77.557299999999998</v>
       </c>
       <c r="U8">
-        <v>129.595</v>
+        <v>19.242380000000001</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>7.2450000000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>43.052</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38260</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>13.481999999999999</v>
+        <v>9.0839999999999996</v>
       </c>
       <c r="D9">
-        <v>46.402000000000001</v>
+        <v>18.718</v>
       </c>
       <c r="E9">
-        <v>33.414000000000001</v>
+        <v>12.55874</v>
       </c>
       <c r="F9">
-        <v>29.815999999999999</v>
+        <v>8.9629999999999992</v>
       </c>
       <c r="G9">
-        <v>192.09899999999999</v>
+        <v>54.35371</v>
       </c>
       <c r="H9">
-        <v>304.928</v>
+        <v>116.38500999999999</v>
       </c>
       <c r="I9">
-        <v>12.395</v>
+        <v>5.1427300000000002</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1449,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>27.93</v>
+        <v>16.833950000000002</v>
       </c>
       <c r="O9">
-        <v>32.994</v>
+        <v>17.053070000000002</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20.506</v>
+        <v>-1.07</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38260</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="T9">
-        <v>271.93400000000003</v>
+        <v>99.331940000000003</v>
       </c>
       <c r="U9">
-        <v>150.101</v>
+        <v>18.171710000000001</v>
       </c>
       <c r="V9">
-        <v>27.375</v>
+        <v>6.7450000000000001</v>
       </c>
       <c r="W9">
-        <v>-4.1059999999999999</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-5.1150000000000002</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>4.04</v>
+        <v>-3.96</v>
       </c>
       <c r="AA9">
-        <v>13.481999999999999</v>
+        <v>9.0839999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38352</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>20.465</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="D10">
-        <v>48.578000000000003</v>
+        <v>19.672999999999998</v>
       </c>
       <c r="E10">
-        <v>31.044</v>
+        <v>14.375</v>
       </c>
       <c r="F10">
-        <v>31.968</v>
+        <v>9.6289999999999996</v>
       </c>
       <c r="G10">
-        <v>178.91800000000001</v>
+        <v>121.125</v>
       </c>
       <c r="H10">
-        <v>279.84100000000001</v>
+        <v>175.64599999999999</v>
       </c>
       <c r="I10">
-        <v>12.327</v>
+        <v>5.2910000000000004</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,75 +1532,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>32.26</v>
+        <v>17.623999999999999</v>
       </c>
       <c r="O10">
-        <v>37.124000000000002</v>
+        <v>20.428000000000001</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>-21.193000000000001</v>
+        <v>79.48</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38352</v>
       </c>
       <c r="S10">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="T10">
-        <v>242.71700000000001</v>
+        <v>155.21799999999999</v>
       </c>
       <c r="U10">
-        <v>128.90799999999999</v>
+        <v>97.652000000000001</v>
       </c>
       <c r="V10">
-        <v>28.312000000000001</v>
+        <v>10.558999999999999</v>
       </c>
       <c r="W10">
-        <v>-4.0529999999999999</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-50.594999999999999</v>
+        <v>54.069000000000003</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>2.7690000000000001</v>
+        <v>15.744</v>
       </c>
       <c r="AA10">
-        <v>20.465</v>
+        <v>2.5350000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38442</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>15.326000000000001</v>
+        <v>3.0569999999999999</v>
       </c>
       <c r="D11">
-        <v>53.651000000000003</v>
+        <v>21.308</v>
       </c>
       <c r="E11">
-        <v>35.466999999999999</v>
+        <v>14.554</v>
       </c>
       <c r="F11">
-        <v>35.488999999999997</v>
+        <v>10.439</v>
       </c>
       <c r="G11">
-        <v>180.012</v>
+        <v>74.744</v>
       </c>
       <c r="H11">
-        <v>282.88099999999997</v>
+        <v>169.25299999999999</v>
       </c>
       <c r="I11">
-        <v>18.98</v>
+        <v>5.3789999999999996</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1519,75 +1615,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>24.981999999999999</v>
+        <v>8.5009999999999994</v>
       </c>
       <c r="O11">
-        <v>30.38</v>
+        <v>10.504</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>-2.9889999999999999</v>
+        <v>-40.61</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38442</v>
       </c>
       <c r="S11">
-        <v>306</v>
+        <v>173</v>
       </c>
       <c r="T11">
-        <v>252.501</v>
+        <v>158.749</v>
       </c>
       <c r="U11">
-        <v>125.919</v>
+        <v>57.042000000000002</v>
       </c>
       <c r="V11">
-        <v>10.279</v>
+        <v>-3.7909999999999999</v>
       </c>
       <c r="W11">
-        <v>-5.4050000000000002</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-7.9269999999999996</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>33.67</v>
+        <v>-36.088000000000001</v>
       </c>
       <c r="AA11">
-        <v>15.326000000000001</v>
+        <v>3.0569999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38533</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>19.343</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="D12">
-        <v>63.506999999999998</v>
+        <v>19.282</v>
       </c>
       <c r="E12">
-        <v>41.826000000000001</v>
+        <v>16.027000000000001</v>
       </c>
       <c r="F12">
-        <v>44.75</v>
+        <v>8.7859999999999996</v>
       </c>
       <c r="G12">
-        <v>197.40700000000001</v>
+        <v>59.024000000000001</v>
       </c>
       <c r="H12">
-        <v>305.37799999999999</v>
+        <v>179.256</v>
       </c>
       <c r="I12">
-        <v>16.867999999999999</v>
+        <v>7.4420000000000002</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1698,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>29.376999999999999</v>
+        <v>13.372</v>
       </c>
       <c r="O12">
-        <v>34.814</v>
+        <v>14.958</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9.5489999999999995</v>
+        <v>-19.411999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38533</v>
       </c>
       <c r="S12">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="T12">
-        <v>270.56400000000002</v>
+        <v>164.298</v>
       </c>
       <c r="U12">
-        <v>135.46799999999999</v>
+        <v>37.630000000000003</v>
       </c>
       <c r="V12">
-        <v>19.97</v>
+        <v>7.2160000000000002</v>
       </c>
       <c r="W12">
-        <v>-4.8529999999999998</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-3.4590000000000001</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>2.415</v>
+        <v>-27.285</v>
       </c>
       <c r="AA12">
-        <v>19.343</v>
+        <v>1.8240000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>38625</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>18.213999999999999</v>
+        <v>1.171</v>
       </c>
       <c r="D13">
-        <v>61.133000000000003</v>
+        <v>19.088000000000001</v>
       </c>
       <c r="E13">
-        <v>36.875999999999998</v>
+        <v>17.245000000000001</v>
       </c>
       <c r="F13">
-        <v>38.713999999999999</v>
+        <v>8.1059999999999999</v>
       </c>
       <c r="G13">
-        <v>172.81399999999999</v>
+        <v>77.525999999999996</v>
       </c>
       <c r="H13">
-        <v>332.68799999999999</v>
+        <v>185.69499999999999</v>
       </c>
       <c r="I13">
-        <v>20.105</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1781,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>42.962000000000003</v>
+        <v>16.922999999999998</v>
       </c>
       <c r="O13">
-        <v>46.067999999999998</v>
+        <v>18.262</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>-15.803000000000001</v>
+        <v>16.863</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>38625</v>
       </c>
       <c r="S13">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="T13">
-        <v>286.62</v>
+        <v>167.43299999999999</v>
       </c>
       <c r="U13">
-        <v>119.009</v>
+        <v>54.493000000000002</v>
       </c>
       <c r="V13">
-        <v>37.08</v>
+        <v>5.6989999999999998</v>
       </c>
       <c r="W13">
-        <v>-4.7699999999999996</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-3.9969999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-44.073</v>
+        <v>11.648999999999999</v>
       </c>
       <c r="AA13">
-        <v>18.213000000000001</v>
+        <v>1.171</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38717</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>18.882000000000001</v>
       </c>
       <c r="E14">
-        <v>34.158000000000001</v>
+        <v>14.795999999999999</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>8.3819999999999997</v>
       </c>
       <c r="G14">
-        <v>189.821</v>
+        <v>132.017</v>
       </c>
       <c r="H14">
-        <v>353.91</v>
+        <v>190.46199999999999</v>
       </c>
       <c r="I14">
-        <v>12.387</v>
+        <v>6.3449999999999998</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1864,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>40.835000000000001</v>
+        <v>18.280999999999999</v>
       </c>
       <c r="O14">
-        <v>43.548000000000002</v>
+        <v>19.597999999999999</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>3.6960000000000002</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38717</v>
       </c>
       <c r="S14">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="T14">
-        <v>310.36200000000002</v>
+        <v>170.864</v>
       </c>
       <c r="U14">
-        <v>132.691</v>
+        <v>58.189</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>7.7839999999999998</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-2.5289999999999999</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38807</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>17.475000000000001</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="D15">
-        <v>62.698</v>
+        <v>20.34</v>
       </c>
       <c r="E15">
-        <v>39.076999999999998</v>
+        <v>15.866</v>
       </c>
       <c r="F15">
-        <v>39.597000000000001</v>
+        <v>8.0050000000000008</v>
       </c>
       <c r="G15">
-        <v>199.76900000000001</v>
+        <v>69.614999999999995</v>
       </c>
       <c r="H15">
-        <v>346.37299999999999</v>
+        <v>185.499</v>
       </c>
       <c r="I15">
-        <v>18.867999999999999</v>
+        <v>6.71</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1851,75 +1947,75 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>25.39</v>
+        <v>9.6310000000000002</v>
       </c>
       <c r="O15">
-        <v>28.111999999999998</v>
+        <v>10.282999999999999</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>-2.6459999999999999</v>
+        <v>-6.0309999999999997</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38807</v>
       </c>
       <c r="S15">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="T15">
-        <v>318.26100000000002</v>
+        <v>175.21600000000001</v>
       </c>
       <c r="U15">
-        <v>130.04499999999999</v>
+        <v>52.158000000000001</v>
       </c>
       <c r="V15">
-        <v>10.147</v>
+        <v>-4.819</v>
       </c>
       <c r="W15">
-        <v>-6.2320000000000002</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-11.916</v>
+        <v>1.2470000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>3.75</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="AA15">
-        <v>17.475000000000001</v>
+        <v>1.0860000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38898</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>18.190999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D16">
-        <v>64.963999999999999</v>
+        <v>20.122</v>
       </c>
       <c r="E16">
-        <v>40.896000000000001</v>
+        <v>16.893000000000001</v>
       </c>
       <c r="F16">
-        <v>42.094000000000001</v>
+        <v>7.8330000000000002</v>
       </c>
       <c r="G16">
-        <v>210.97</v>
+        <v>69.38</v>
       </c>
       <c r="H16">
-        <v>356.71899999999999</v>
+        <v>189.43</v>
       </c>
       <c r="I16">
-        <v>18.300999999999998</v>
+        <v>5.6989999999999998</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +2030,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.79</v>
+        <v>11.489000000000001</v>
       </c>
       <c r="O16">
-        <v>33.74</v>
+        <v>11.954000000000001</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3.109</v>
+        <v>-0.86699999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38898</v>
       </c>
       <c r="S16">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="T16">
-        <v>322.97899999999998</v>
+        <v>177.476</v>
       </c>
       <c r="U16">
-        <v>133.154</v>
+        <v>51.290999999999997</v>
       </c>
       <c r="V16">
-        <v>26.265000000000001</v>
+        <v>5.431</v>
       </c>
       <c r="W16">
-        <v>-5.9320000000000004</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-15.585000000000001</v>
+        <v>0.373</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-2.5209999999999999</v>
+        <v>-4.8540000000000001</v>
       </c>
       <c r="AA16">
-        <v>18.190999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38990</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>17.504000000000001</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="D17">
-        <v>64.245000000000005</v>
+        <v>20.774000000000001</v>
       </c>
       <c r="E17">
-        <v>36.770000000000003</v>
+        <v>18.795999999999999</v>
       </c>
       <c r="F17">
-        <v>41.296999999999997</v>
+        <v>8.3350000000000009</v>
       </c>
       <c r="G17">
-        <v>230.56700000000001</v>
+        <v>85.793000000000006</v>
       </c>
       <c r="H17">
-        <v>362.90899999999999</v>
+        <v>197.45500000000001</v>
       </c>
       <c r="I17">
-        <v>11.282999999999999</v>
+        <v>7.1559999999999997</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,75 +2113,75 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>33.335000000000001</v>
+        <v>15.907</v>
       </c>
       <c r="O17">
-        <v>36.606000000000002</v>
+        <v>16.498999999999999</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21.946000000000002</v>
+        <v>14.002000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38990</v>
       </c>
       <c r="S17">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="T17">
-        <v>326.303</v>
+        <v>180.95599999999999</v>
       </c>
       <c r="U17">
-        <v>155.1</v>
+        <v>65.293000000000006</v>
       </c>
       <c r="V17">
-        <v>32.177</v>
+        <v>7.4669999999999996</v>
       </c>
       <c r="W17">
-        <v>-5.8979999999999997</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-16.46</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>8.1259999999999994</v>
+        <v>6.7729999999999997</v>
       </c>
       <c r="AA17">
-        <v>17.504000000000001</v>
+        <v>1.2969999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39082</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>21.635999999999999</v>
+        <v>2.238</v>
       </c>
       <c r="D18">
-        <v>70.167000000000002</v>
+        <v>22.08</v>
       </c>
       <c r="E18">
-        <v>33.732999999999997</v>
+        <v>17.428999999999998</v>
       </c>
       <c r="F18">
-        <v>46.405999999999999</v>
+        <v>9.3610000000000007</v>
       </c>
       <c r="G18">
-        <v>245.50700000000001</v>
+        <v>101.44799999999999</v>
       </c>
       <c r="H18">
-        <v>379.88400000000001</v>
+        <v>204.27799999999999</v>
       </c>
       <c r="I18">
-        <v>11.961</v>
+        <v>5.2130000000000001</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2100,75 +2196,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>43.210999999999999</v>
+        <v>18.135999999999999</v>
       </c>
       <c r="O18">
-        <v>45.676000000000002</v>
+        <v>18.992999999999999</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.824</v>
+        <v>16.707000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39082</v>
       </c>
       <c r="S18">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="T18">
-        <v>334.20800000000003</v>
+        <v>185.285</v>
       </c>
       <c r="U18">
-        <v>168.92400000000001</v>
+        <v>82</v>
       </c>
       <c r="V18">
-        <v>41.363</v>
+        <v>9.0220000000000002</v>
       </c>
       <c r="W18">
-        <v>-5.8789999999999996</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-16.262</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-8.2040000000000006</v>
+        <v>9.1910000000000007</v>
       </c>
       <c r="AA18">
-        <v>21.635999999999999</v>
+        <v>2.238</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39172</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>24.593</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D19">
-        <v>76.771000000000001</v>
+        <v>23.765000000000001</v>
       </c>
       <c r="E19">
-        <v>46.061999999999998</v>
+        <v>19.998000000000001</v>
       </c>
       <c r="F19">
-        <v>51.259</v>
+        <v>10.499000000000001</v>
       </c>
       <c r="G19">
-        <v>249.852</v>
+        <v>90.391999999999996</v>
       </c>
       <c r="H19">
-        <v>378.69400000000002</v>
+        <v>189.17400000000001</v>
       </c>
       <c r="I19">
-        <v>12.756</v>
+        <v>8.4640000000000004</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2183,75 +2279,75 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>31.298999999999999</v>
+        <v>13.875999999999999</v>
       </c>
       <c r="O19">
-        <v>34.024000000000001</v>
+        <v>14.827999999999999</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>-7.8760000000000003</v>
+        <v>-13.709</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39172</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>344.67</v>
+        <v>174.346</v>
       </c>
       <c r="U19">
-        <v>161.048</v>
+        <v>68.290999999999997</v>
       </c>
       <c r="V19">
-        <v>10.034000000000001</v>
+        <v>-1.76</v>
       </c>
       <c r="W19">
-        <v>-7.5170000000000003</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-17.241</v>
+        <v>-15.268000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>2.4039999999999999</v>
+        <v>4.577</v>
       </c>
       <c r="AA19">
-        <v>24.593</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39263</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>24.238</v>
+        <v>3.552</v>
       </c>
       <c r="D20">
-        <v>75.491</v>
+        <v>25.303999999999998</v>
       </c>
       <c r="E20">
-        <v>46.938000000000002</v>
+        <v>19.007000000000001</v>
       </c>
       <c r="F20">
-        <v>50.930999999999997</v>
+        <v>12.359</v>
       </c>
       <c r="G20">
-        <v>263.13499999999999</v>
+        <v>85.82</v>
       </c>
       <c r="H20">
-        <v>398.94600000000003</v>
+        <v>193.261</v>
       </c>
       <c r="I20">
-        <v>13.164</v>
+        <v>8.6820000000000004</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2362,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>36.439</v>
+        <v>17.285</v>
       </c>
       <c r="O20">
-        <v>39.088999999999999</v>
+        <v>17.934999999999999</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8.2149999999999999</v>
+        <v>-2.9409999999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39263</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>359.85700000000003</v>
+        <v>175.32599999999999</v>
       </c>
       <c r="U20">
-        <v>169.26300000000001</v>
+        <v>65.349999999999994</v>
       </c>
       <c r="V20">
-        <v>30.561</v>
+        <v>14.058999999999999</v>
       </c>
       <c r="W20">
-        <v>-7.3449999999999998</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-11.583</v>
+        <v>-3.734</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-6.1740000000000004</v>
+        <v>-12.105</v>
       </c>
       <c r="AA20">
-        <v>24.238</v>
+        <v>3.552</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39355</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>22.715</v>
+        <v>2.41</v>
       </c>
       <c r="D21">
-        <v>74.191999999999993</v>
+        <v>22.198</v>
       </c>
       <c r="E21">
-        <v>49.094000000000001</v>
+        <v>19.681999999999999</v>
       </c>
       <c r="F21">
-        <v>49.298999999999999</v>
+        <v>10.042999999999999</v>
       </c>
       <c r="G21">
-        <v>258.93599999999998</v>
+        <v>95.353999999999999</v>
       </c>
       <c r="H21">
-        <v>416.322</v>
+        <v>198.369</v>
       </c>
       <c r="I21">
-        <v>13.388</v>
+        <v>9.423</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,75 +2445,75 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>40.636000000000003</v>
+        <v>20.893999999999998</v>
       </c>
       <c r="O21">
-        <v>42.850999999999999</v>
+        <v>22.038</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>-8.8870000000000005</v>
+        <v>9</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39355</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>373.471</v>
+        <v>176.33099999999999</v>
       </c>
       <c r="U21">
-        <v>160.376</v>
+        <v>74.349999999999994</v>
       </c>
       <c r="V21">
-        <v>35.743000000000002</v>
+        <v>10.031000000000001</v>
       </c>
       <c r="W21">
-        <v>-7.3390000000000004</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-12.12</v>
+        <v>-2.6659999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-28.356999999999999</v>
+        <v>3.133</v>
       </c>
       <c r="AA21">
-        <v>22.715</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39447</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>24.491</v>
+        <v>1.9079999999999999</v>
       </c>
       <c r="D22">
-        <v>76.644000000000005</v>
+        <v>22.376000000000001</v>
       </c>
       <c r="E22">
-        <v>40.459000000000003</v>
+        <v>18.396999999999998</v>
       </c>
       <c r="F22">
-        <v>51.837000000000003</v>
+        <v>10.228</v>
       </c>
       <c r="G22">
-        <v>287.76100000000002</v>
+        <v>130.61000000000001</v>
       </c>
       <c r="H22">
-        <v>439.041</v>
+        <v>198.36600000000001</v>
       </c>
       <c r="I22">
-        <v>12.257</v>
+        <v>8.6549999999999994</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2528,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>46.015999999999998</v>
+        <v>23.143000000000001</v>
       </c>
       <c r="O22">
-        <v>48.328000000000003</v>
+        <v>23.969000000000001</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>39.351999999999997</v>
+        <v>-1.639</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39447</v>
       </c>
       <c r="S22">
-        <v>342</v>
+        <v>182</v>
       </c>
       <c r="T22">
-        <v>390.71300000000002</v>
+        <v>174.39699999999999</v>
       </c>
       <c r="U22">
-        <v>199.72800000000001</v>
+        <v>72.710999999999999</v>
       </c>
       <c r="V22">
-        <v>43.857999999999997</v>
+        <v>6.79</v>
       </c>
       <c r="W22">
-        <v>-7.3330000000000002</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-10.11</v>
+        <v>-5.3470000000000004</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>10.199999999999999</v>
+        <v>1.915</v>
       </c>
       <c r="AA22">
-        <v>24.491</v>
+        <v>1.9079999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39538</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>28.963000000000001</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="D23">
-        <v>88.572999999999993</v>
+        <v>22.939</v>
       </c>
       <c r="E23">
-        <v>52.755000000000003</v>
+        <v>17.477</v>
       </c>
       <c r="F23">
-        <v>59.741999999999997</v>
+        <v>9.8149999999999995</v>
       </c>
       <c r="G23">
-        <v>278.08199999999999</v>
+        <v>74.382000000000005</v>
       </c>
       <c r="H23">
-        <v>451.84199999999998</v>
+        <v>200.791</v>
       </c>
       <c r="I23">
-        <v>15.869</v>
+        <v>15.589</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2515,75 +2611,75 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>38.823999999999998</v>
+        <v>19.042000000000002</v>
       </c>
       <c r="O23">
-        <v>41.426000000000002</v>
+        <v>20.786999999999999</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>-61.732999999999997</v>
+        <v>-18.411999999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39538</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>410.416</v>
+        <v>180.00399999999999</v>
       </c>
       <c r="U23">
-        <v>137.995</v>
+        <v>54.298999999999999</v>
       </c>
       <c r="V23">
-        <v>-52.743000000000002</v>
+        <v>-1.9079999999999999</v>
       </c>
       <c r="W23">
-        <v>-9.7270000000000003</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-15.324999999999999</v>
+        <v>-3.411</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>12</v>
+        <v>17.210999999999999</v>
       </c>
       <c r="AA23">
-        <v>28.963000000000001</v>
+        <v>1.5960000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>39629</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>33.125999999999998</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="D24">
-        <v>96.638999999999996</v>
+        <v>25.637</v>
       </c>
       <c r="E24">
-        <v>62.86</v>
+        <v>18.439</v>
       </c>
       <c r="F24">
-        <v>66.546999999999997</v>
+        <v>12.013</v>
       </c>
       <c r="G24">
-        <v>303.27800000000002</v>
+        <v>117.443</v>
       </c>
       <c r="H24">
-        <v>477.11500000000001</v>
+        <v>229.06399999999999</v>
       </c>
       <c r="I24">
-        <v>15.146000000000001</v>
+        <v>10.593</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2598,75 +2694,75 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>38.357999999999997</v>
+        <v>16.553999999999998</v>
       </c>
       <c r="O24">
-        <v>40.963999999999999</v>
+        <v>18.317</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.28</v>
+        <v>41.957000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>39629</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>436.15100000000001</v>
+        <v>210.74700000000001</v>
       </c>
       <c r="U24">
-        <v>153.27500000000001</v>
+        <v>96.256</v>
       </c>
       <c r="V24">
-        <v>32.646999999999998</v>
+        <v>10.829000000000001</v>
       </c>
       <c r="W24">
-        <v>-9.5860000000000003</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-12.835000000000001</v>
+        <v>26.774999999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-6.5000000000000002E-2</v>
+        <v>11.853999999999999</v>
       </c>
       <c r="AA24">
-        <v>33.125999999999998</v>
+        <v>2.8479999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39721</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>30.917999999999999</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="D25">
-        <v>90.271000000000001</v>
+        <v>22.681000000000001</v>
       </c>
       <c r="E25">
-        <v>56.582999999999998</v>
+        <v>16.754000000000001</v>
       </c>
       <c r="F25">
-        <v>62.112000000000002</v>
+        <v>9.5009999999999994</v>
       </c>
       <c r="G25">
-        <v>305.65899999999999</v>
+        <v>133.858</v>
       </c>
       <c r="H25">
-        <v>502.15100000000001</v>
+        <v>240.07400000000001</v>
       </c>
       <c r="I25">
-        <v>15.265000000000001</v>
+        <v>8.0939999999999994</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2681,75 +2777,75 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>47.445</v>
+        <v>16.768000000000001</v>
       </c>
       <c r="O25">
-        <v>50.451000000000001</v>
+        <v>19.335999999999999</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8.1690000000000005</v>
+        <v>18.706</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39721</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>451.7</v>
+        <v>220.738</v>
       </c>
       <c r="U25">
-        <v>161.44399999999999</v>
+        <v>114.962</v>
       </c>
       <c r="V25">
-        <v>53.235999999999997</v>
+        <v>8.9280000000000008</v>
       </c>
       <c r="W25">
-        <v>-9.6010000000000009</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-18.385000000000002</v>
+        <v>6.9880000000000004</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-22.405000000000001</v>
+        <v>3.7719999999999998</v>
       </c>
       <c r="AA25">
-        <v>30.917999999999999</v>
+        <v>1.5189999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39813</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>33.164999999999999</v>
+        <v>1.9359999999999999</v>
       </c>
       <c r="D26">
-        <v>94.436000000000007</v>
+        <v>21.827999999999999</v>
       </c>
       <c r="E26">
-        <v>50.667999999999999</v>
+        <v>13.282999999999999</v>
       </c>
       <c r="F26">
-        <v>67.457999999999998</v>
+        <v>9.6340000000000003</v>
       </c>
       <c r="G26">
-        <v>306.06299999999999</v>
+        <v>142.48500000000001</v>
       </c>
       <c r="H26">
-        <v>528.04200000000003</v>
+        <v>246.428</v>
       </c>
       <c r="I26">
-        <v>14.882999999999999</v>
+        <v>8.8780000000000001</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2764,75 +2860,75 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>57.514000000000003</v>
+        <v>19.317</v>
       </c>
       <c r="O26">
-        <v>60.029000000000003</v>
+        <v>21.62</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6.7990000000000004</v>
+        <v>-7.6390000000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39813</v>
       </c>
       <c r="S26">
-        <v>383</v>
+        <v>185</v>
       </c>
       <c r="T26">
-        <v>468.01299999999998</v>
+        <v>224.80799999999999</v>
       </c>
       <c r="U26">
-        <v>168.24299999999999</v>
+        <v>107.32299999999999</v>
       </c>
       <c r="V26">
-        <v>56.606999999999999</v>
+        <v>9.7850000000000001</v>
       </c>
       <c r="W26">
-        <v>-9.5809999999999995</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-18.748999999999999</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-24.620999999999999</v>
+        <v>-16.515000000000001</v>
       </c>
       <c r="AA26">
-        <v>33.164999999999999</v>
+        <v>1.9359999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39903</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>42.463000000000001</v>
+        <v>2.839</v>
       </c>
       <c r="D27">
-        <v>102.964</v>
+        <v>24.632000000000001</v>
       </c>
       <c r="E27">
-        <v>56.642000000000003</v>
+        <v>17.917000000000002</v>
       </c>
       <c r="F27">
-        <v>71.094999999999999</v>
+        <v>10.948</v>
       </c>
       <c r="G27">
-        <v>286.34100000000001</v>
+        <v>130.32599999999999</v>
       </c>
       <c r="H27">
-        <v>530.71400000000006</v>
+        <v>243.22200000000001</v>
       </c>
       <c r="I27">
-        <v>15.176</v>
+        <v>8.8620000000000001</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2847,75 +2943,75 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>45.168999999999997</v>
+        <v>11.826000000000001</v>
       </c>
       <c r="O27">
-        <v>48.359000000000002</v>
+        <v>14.055999999999999</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>-30.588000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39903</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>482.35500000000002</v>
+        <v>229.166</v>
       </c>
       <c r="U27">
-        <v>137.655</v>
+        <v>109.82299999999999</v>
       </c>
       <c r="V27">
-        <v>30.548999999999999</v>
+        <v>-2.33</v>
       </c>
       <c r="W27">
-        <v>-12.356</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-31.704999999999998</v>
+        <v>-0.50600000000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-21.681000000000001</v>
+        <v>7.694</v>
       </c>
       <c r="AA27">
-        <v>42.463000000000001</v>
+        <v>2.839</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39994</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>38.023000000000003</v>
+        <v>3.1869999999999998</v>
       </c>
       <c r="D28">
-        <v>96.313999999999993</v>
+        <v>25.838999999999999</v>
       </c>
       <c r="E28">
-        <v>55.215000000000003</v>
+        <v>21.684999999999999</v>
       </c>
       <c r="F28">
-        <v>66.173000000000002</v>
+        <v>11.802</v>
       </c>
       <c r="G28">
-        <v>281.697</v>
+        <v>113.053</v>
       </c>
       <c r="H28">
-        <v>547.04100000000005</v>
+        <v>252.095</v>
       </c>
       <c r="I28">
-        <v>12.625</v>
+        <v>8.6639999999999997</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2930,75 +3026,75 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>42.737000000000002</v>
+        <v>14.904</v>
       </c>
       <c r="O28">
-        <v>45.813000000000002</v>
+        <v>16.995000000000001</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>-9.5120000000000005</v>
+        <v>-21.085999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39994</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>501.22800000000001</v>
+        <v>235.1</v>
       </c>
       <c r="U28">
-        <v>128.143</v>
+        <v>88.736999999999995</v>
       </c>
       <c r="V28">
-        <v>38.569000000000003</v>
+        <v>8.2170000000000005</v>
       </c>
       <c r="W28">
-        <v>-12.179</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-23.75</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-20.178999999999998</v>
+        <v>-28.297999999999998</v>
       </c>
       <c r="AA28">
-        <v>38.023000000000003</v>
+        <v>3.1869999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40086</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>34.130000000000003</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D29">
-        <v>95.584000000000003</v>
+        <v>30.009</v>
       </c>
       <c r="E29">
-        <v>63.027000000000001</v>
+        <v>23.652999999999999</v>
       </c>
       <c r="F29">
-        <v>65.063999999999993</v>
+        <v>14.853</v>
       </c>
       <c r="G29">
-        <v>287.13600000000002</v>
+        <v>132.66499999999999</v>
       </c>
       <c r="H29">
-        <v>562.34699999999998</v>
+        <v>267.5</v>
       </c>
       <c r="I29">
-        <v>12.714</v>
+        <v>10.734999999999999</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3013,75 +3109,75 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>48.247999999999998</v>
+        <v>20.949000000000002</v>
       </c>
       <c r="O29">
-        <v>51.439</v>
+        <v>25.373999999999999</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10.849</v>
+        <v>17.396000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40086</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>510.90800000000002</v>
+        <v>242.126</v>
       </c>
       <c r="U29">
-        <v>138.99199999999999</v>
+        <v>106.133</v>
       </c>
       <c r="V29">
-        <v>52.465000000000003</v>
+        <v>18.126000000000001</v>
       </c>
       <c r="W29">
-        <v>-12.182</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-28.88</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-8.6549999999999994</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="AA29">
-        <v>34.130000000000003</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40178</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>33.472999999999999</v>
+        <v>5.4359999999999999</v>
       </c>
       <c r="D30">
-        <v>98.56</v>
+        <v>33.959000000000003</v>
       </c>
       <c r="E30">
-        <v>52.636000000000003</v>
+        <v>23.15</v>
       </c>
       <c r="F30">
-        <v>68.728999999999999</v>
+        <v>18.126000000000001</v>
       </c>
       <c r="G30">
-        <v>332.83600000000001</v>
+        <v>160.45099999999999</v>
       </c>
       <c r="H30">
-        <v>581.23199999999997</v>
+        <v>277.286</v>
       </c>
       <c r="I30">
-        <v>10.839</v>
+        <v>10.75</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3096,75 +3192,75 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>63.804000000000002</v>
+        <v>25.907</v>
       </c>
       <c r="O30">
-        <v>66.463999999999999</v>
+        <v>30.469000000000001</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28.021999999999998</v>
+        <v>-2.7919999999999998</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40178</v>
       </c>
       <c r="S30">
-        <v>429</v>
+        <v>212</v>
       </c>
       <c r="T30">
-        <v>514.76800000000003</v>
+        <v>246.81700000000001</v>
       </c>
       <c r="U30">
-        <v>167.01400000000001</v>
+        <v>103.34099999999999</v>
       </c>
       <c r="V30">
-        <v>46.451999999999998</v>
+        <v>19.314</v>
       </c>
       <c r="W30">
-        <v>-12.170999999999999</v>
+        <v>-2.65</v>
       </c>
       <c r="X30">
-        <v>-32.732999999999997</v>
+        <v>-2.6280000000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>22.478000000000002</v>
+        <v>-15.099</v>
       </c>
       <c r="AA30">
-        <v>33.472999999999999</v>
+        <v>5.4359999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40268</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>47.94</v>
+        <v>6.7009999999999996</v>
       </c>
       <c r="D31">
-        <v>114.714</v>
+        <v>34.884</v>
       </c>
       <c r="E31">
-        <v>67.528999999999996</v>
+        <v>26.684999999999999</v>
       </c>
       <c r="F31">
-        <v>80.100999999999999</v>
+        <v>18.533999999999999</v>
       </c>
       <c r="G31">
-        <v>334.77499999999998</v>
+        <v>135.30799999999999</v>
       </c>
       <c r="H31">
-        <v>589.27300000000002</v>
+        <v>272.63099999999997</v>
       </c>
       <c r="I31">
-        <v>14.532</v>
+        <v>11.337999999999999</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3179,75 +3275,75 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>48.555</v>
+        <v>15.675000000000001</v>
       </c>
       <c r="O31">
-        <v>52.109000000000002</v>
+        <v>20.103000000000002</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>-10.845000000000001</v>
+        <v>1.2110000000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40268</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>537.16399999999999</v>
+        <v>252.52799999999999</v>
       </c>
       <c r="U31">
-        <v>156.16900000000001</v>
+        <v>104.55200000000001</v>
       </c>
       <c r="V31">
-        <v>31.439</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="W31">
-        <v>-15.814</v>
+        <v>-2.681</v>
       </c>
       <c r="X31">
-        <v>-29.445</v>
+        <v>-3.198</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-6.8369999999999997</v>
+        <v>8.0920000000000005</v>
       </c>
       <c r="AA31">
-        <v>47.94</v>
+        <v>6.7009999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40359</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>40.487000000000002</v>
+        <v>7.1689999999999996</v>
       </c>
       <c r="D32">
-        <v>106.964</v>
+        <v>35.326000000000001</v>
       </c>
       <c r="E32">
-        <v>61.883000000000003</v>
+        <v>24.091000000000001</v>
       </c>
       <c r="F32">
-        <v>74.971999999999994</v>
+        <v>18.783999999999999</v>
       </c>
       <c r="G32">
-        <v>352.17099999999999</v>
+        <v>165.125</v>
       </c>
       <c r="H32">
-        <v>617.59799999999996</v>
+        <v>285.43599999999998</v>
       </c>
       <c r="I32">
-        <v>19.779</v>
+        <v>11.923999999999999</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3262,75 +3358,75 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>56.625</v>
+        <v>20.431999999999999</v>
       </c>
       <c r="O32">
-        <v>60.22</v>
+        <v>25.010999999999999</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14.516999999999999</v>
+        <v>8.9740000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40359</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>557.37800000000004</v>
+        <v>260.42500000000001</v>
       </c>
       <c r="U32">
-        <v>170.68600000000001</v>
+        <v>113.526</v>
       </c>
       <c r="V32">
-        <v>54.378999999999998</v>
+        <v>22.638000000000002</v>
       </c>
       <c r="W32">
-        <v>-15.536</v>
+        <v>-2.7</v>
       </c>
       <c r="X32">
-        <v>-22.434999999999999</v>
+        <v>-1.9470000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-0.02</v>
+        <v>-10.241</v>
       </c>
       <c r="AA32">
-        <v>40.487000000000002</v>
+        <v>7.1689999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40451</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>38.594000000000001</v>
+        <v>8.6110000000000007</v>
       </c>
       <c r="D33">
-        <v>101.443</v>
+        <v>37.412999999999997</v>
       </c>
       <c r="E33">
-        <v>62.003999999999998</v>
+        <v>27.32</v>
       </c>
       <c r="F33">
-        <v>69.281999999999996</v>
+        <v>20.544</v>
       </c>
       <c r="G33">
-        <v>378.548</v>
+        <v>164.928</v>
       </c>
       <c r="H33">
-        <v>646.13099999999997</v>
+        <v>287.16899999999998</v>
       </c>
       <c r="I33">
-        <v>19.338999999999999</v>
+        <v>12.474</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3345,75 +3441,75 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>63.728000000000002</v>
+        <v>26.225000000000001</v>
       </c>
       <c r="O33">
-        <v>67.513000000000005</v>
+        <v>31.103000000000002</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39.399000000000001</v>
+        <v>-4.7809999999999997</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40451</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>578.61800000000005</v>
+        <v>256.06599999999997</v>
       </c>
       <c r="U33">
-        <v>210.08500000000001</v>
+        <v>108.745</v>
       </c>
       <c r="V33">
-        <v>67.994</v>
+        <v>19.026</v>
       </c>
       <c r="W33">
-        <v>-15.542999999999999</v>
+        <v>-2.6579999999999999</v>
       </c>
       <c r="X33">
-        <v>-20.550999999999998</v>
+        <v>-22.765999999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>2.84</v>
+        <v>0.435</v>
       </c>
       <c r="AA33">
-        <v>38.594000000000001</v>
+        <v>8.6110000000000007</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40543</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>45.831000000000003</v>
+        <v>8.9469999999999992</v>
       </c>
       <c r="D34">
-        <v>112.444</v>
+        <v>38.604999999999997</v>
       </c>
       <c r="E34">
-        <v>57.534999999999997</v>
+        <v>25.681999999999999</v>
       </c>
       <c r="F34">
-        <v>78.227000000000004</v>
+        <v>21.937999999999999</v>
       </c>
       <c r="G34">
-        <v>419.464</v>
+        <v>182.19200000000001</v>
       </c>
       <c r="H34">
-        <v>695.53899999999999</v>
+        <v>299.52100000000002</v>
       </c>
       <c r="I34">
-        <v>28.344999999999999</v>
+        <v>12.068</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3428,75 +3524,75 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>84.850999999999999</v>
+        <v>30.158999999999999</v>
       </c>
       <c r="O34">
-        <v>87.661000000000001</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36.237000000000002</v>
+        <v>16.248999999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40543</v>
       </c>
       <c r="S34">
-        <v>454</v>
+        <v>229</v>
       </c>
       <c r="T34">
-        <v>607.87800000000004</v>
+        <v>264.791</v>
       </c>
       <c r="U34">
-        <v>246.322</v>
+        <v>124.994</v>
       </c>
       <c r="V34">
-        <v>70.105000000000004</v>
+        <v>22.562999999999999</v>
       </c>
       <c r="W34">
-        <v>-15.539</v>
+        <v>-2.5910000000000002</v>
       </c>
       <c r="X34">
-        <v>-20.242000000000001</v>
+        <v>-5.9379999999999997</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>1.2749999999999999</v>
+        <v>1.071</v>
       </c>
       <c r="AA34">
-        <v>45.831000000000003</v>
+        <v>8.9469999999999992</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>40633</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>52.521999999999998</v>
+        <v>10.78</v>
       </c>
       <c r="D35">
-        <v>124.491</v>
+        <v>43.609000000000002</v>
       </c>
       <c r="E35">
-        <v>70.945999999999998</v>
+        <v>30.064</v>
       </c>
       <c r="F35">
-        <v>86.051000000000002</v>
+        <v>24.841000000000001</v>
       </c>
       <c r="G35">
-        <v>438.52499999999998</v>
+        <v>179.834</v>
       </c>
       <c r="H35">
-        <v>774.80899999999997</v>
+        <v>303.73</v>
       </c>
       <c r="I35">
-        <v>13.717000000000001</v>
+        <v>11.695</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3511,75 +3607,75 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>53.040999999999997</v>
+        <v>17.667000000000002</v>
       </c>
       <c r="O35">
-        <v>143.66300000000001</v>
+        <v>22.346</v>
       </c>
       <c r="P35">
-        <v>90.844999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>14.647</v>
+        <v>-8.4269999999999996</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>40633</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>631.14599999999996</v>
+        <v>281.38400000000001</v>
       </c>
       <c r="U35">
-        <v>260.95299999999997</v>
+        <v>116.56699999999999</v>
       </c>
       <c r="V35">
-        <v>39.369</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="W35">
-        <v>-19.411999999999999</v>
+        <v>-3.3879999999999999</v>
       </c>
       <c r="X35">
-        <v>-36.226999999999997</v>
+        <v>-0.436</v>
       </c>
       <c r="Y35">
-        <v>87.076999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>14.41</v>
+        <v>-7.2939999999999996</v>
       </c>
       <c r="AA35">
-        <v>52.521999999999998</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40724</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>48.104999999999997</v>
+        <v>11.936999999999999</v>
       </c>
       <c r="D36">
-        <v>125.49</v>
+        <v>45.790999999999997</v>
       </c>
       <c r="E36">
-        <v>66.331999999999994</v>
+        <v>34.494</v>
       </c>
       <c r="F36">
-        <v>86.393000000000001</v>
+        <v>27.963000000000001</v>
       </c>
       <c r="G36">
-        <v>461.642</v>
+        <v>203.96600000000001</v>
       </c>
       <c r="H36">
-        <v>812.00900000000001</v>
+        <v>321.267</v>
       </c>
       <c r="I36">
-        <v>16.071999999999999</v>
+        <v>11.936</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3594,75 +3690,75 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>58.033000000000001</v>
+        <v>23.966999999999999</v>
       </c>
       <c r="O36">
-        <v>150.101</v>
+        <v>28.41</v>
       </c>
       <c r="P36">
-        <v>89.712000000000003</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>25.207999999999998</v>
+        <v>19.201000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40724</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>661.90800000000002</v>
+        <v>292.85700000000003</v>
       </c>
       <c r="U36">
-        <v>286.17899999999997</v>
+        <v>135.768</v>
       </c>
       <c r="V36">
-        <v>69.733000000000004</v>
+        <v>18.343</v>
       </c>
       <c r="W36">
-        <v>-18.911000000000001</v>
+        <v>-3.4159999999999999</v>
       </c>
       <c r="X36">
-        <v>-22.305</v>
+        <v>-1.6479999999999999</v>
       </c>
       <c r="Y36">
-        <v>88.257999999999996</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-11.724</v>
+        <v>4.6109999999999998</v>
       </c>
       <c r="AA36">
-        <v>48.104999999999997</v>
+        <v>11.936999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40816</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>54.002000000000002</v>
+        <v>13.444000000000001</v>
       </c>
       <c r="D37">
-        <v>131.59700000000001</v>
+        <v>46.564</v>
       </c>
       <c r="E37">
-        <v>72.811999999999998</v>
+        <v>31.858000000000001</v>
       </c>
       <c r="F37">
-        <v>91.534999999999997</v>
+        <v>30.085000000000001</v>
       </c>
       <c r="G37">
-        <v>506.74299999999999</v>
+        <v>221.78800000000001</v>
       </c>
       <c r="H37">
-        <v>855.02599999999995</v>
+        <v>339.2</v>
       </c>
       <c r="I37">
-        <v>16.285</v>
+        <v>12.657999999999999</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3677,75 +3773,75 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>67.052999999999997</v>
+        <v>28.33</v>
       </c>
       <c r="O37">
-        <v>160.40299999999999</v>
+        <v>33.366999999999997</v>
       </c>
       <c r="P37">
-        <v>92.031000000000006</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>34.329000000000001</v>
+        <v>21.853999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40816</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>694.62300000000005</v>
+        <v>305.83300000000003</v>
       </c>
       <c r="U37">
-        <v>320.52699999999999</v>
+        <v>157.62200000000001</v>
       </c>
       <c r="V37">
-        <v>67.691999999999993</v>
+        <v>27.382000000000001</v>
       </c>
       <c r="W37">
-        <v>-18.91</v>
+        <v>-3.4319999999999999</v>
       </c>
       <c r="X37">
-        <v>-27.527000000000001</v>
+        <v>-2.4369999999999998</v>
       </c>
       <c r="Y37">
-        <v>89.619</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>4.548</v>
+        <v>-4.1909999999999998</v>
       </c>
       <c r="AA37">
-        <v>54.002000000000002</v>
+        <v>13.444000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40908</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>50.273000000000003</v>
+        <v>11.542999999999999</v>
       </c>
       <c r="D38">
-        <v>129.774</v>
+        <v>45.134999999999998</v>
       </c>
       <c r="E38">
-        <v>62.017000000000003</v>
+        <v>36.015000000000001</v>
       </c>
       <c r="F38">
-        <v>89.501999999999995</v>
+        <v>28.512</v>
       </c>
       <c r="G38">
-        <v>456.05399999999997</v>
+        <v>245.809</v>
       </c>
       <c r="H38">
-        <v>954.93</v>
+        <v>349.45800000000003</v>
       </c>
       <c r="I38">
-        <v>20.021000000000001</v>
+        <v>12.268000000000001</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3760,75 +3856,75 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>86.847999999999999</v>
+        <v>31.693000000000001</v>
       </c>
       <c r="O38">
-        <v>184.839</v>
+        <v>37.018999999999998</v>
       </c>
       <c r="P38">
-        <v>97.991</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>-47.389000000000003</v>
+        <v>11.997999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40908</v>
       </c>
       <c r="S38">
-        <v>527</v>
+        <v>232</v>
       </c>
       <c r="T38">
-        <v>770.09100000000001</v>
+        <v>312.43900000000002</v>
       </c>
       <c r="U38">
-        <v>270.12400000000002</v>
+        <v>169.62</v>
       </c>
       <c r="V38">
-        <v>89.141000000000005</v>
+        <v>18.687000000000001</v>
       </c>
       <c r="W38">
-        <v>-18.998000000000001</v>
+        <v>-3.4470000000000001</v>
       </c>
       <c r="X38">
-        <v>-32.040999999999997</v>
+        <v>-6.6779999999999999</v>
       </c>
       <c r="Y38">
-        <v>97.991</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>2.875</v>
+        <v>1.9910000000000001</v>
       </c>
       <c r="AA38">
-        <v>50.273000000000003</v>
+        <v>11.542999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40999</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>74.816000000000003</v>
+        <v>13.493</v>
       </c>
       <c r="D39">
-        <v>168.97800000000001</v>
+        <v>50.734999999999999</v>
       </c>
       <c r="E39">
-        <v>93.572000000000003</v>
+        <v>33.039000000000001</v>
       </c>
       <c r="F39">
-        <v>119.623</v>
+        <v>31.939</v>
       </c>
       <c r="G39">
-        <v>512.50099999999998</v>
+        <v>173.053</v>
       </c>
       <c r="H39">
-        <v>975.60299999999995</v>
+        <v>274.51</v>
       </c>
       <c r="I39">
-        <v>27.385000000000002</v>
+        <v>14.247</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3843,75 +3939,75 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>85.724999999999994</v>
+        <v>20.364000000000001</v>
       </c>
       <c r="O39">
-        <v>177.72</v>
+        <v>25.593</v>
       </c>
       <c r="P39">
-        <v>96.301000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>91.744</v>
+        <v>-49.811</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40999</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>797.88300000000004</v>
+        <v>248.917</v>
       </c>
       <c r="U39">
-        <v>363.81099999999998</v>
+        <v>119.809</v>
       </c>
       <c r="V39">
-        <v>120.369</v>
+        <v>13.374000000000001</v>
       </c>
       <c r="W39">
-        <v>-23.244</v>
+        <v>-4.2009999999999996</v>
       </c>
       <c r="X39">
-        <v>-49.822000000000003</v>
+        <v>-78.718000000000004</v>
       </c>
       <c r="Y39">
-        <v>88.045000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>36.158999999999999</v>
+        <v>17.824999999999999</v>
       </c>
       <c r="AA39">
-        <v>74.816000000000003</v>
+        <v>13.493</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41090</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>83.853999999999999</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>184.79499999999999</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>99.221999999999994</v>
+        <v>33.209000000000003</v>
       </c>
       <c r="F40">
-        <v>134.56700000000001</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>573.69299999999998</v>
+        <v>189.018</v>
       </c>
       <c r="H40">
-        <v>1039.2170000000001</v>
+        <v>289.72800000000001</v>
       </c>
       <c r="I40">
-        <v>22.623999999999999</v>
+        <v>12.164</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3926,75 +4022,75 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>92.272000000000006</v>
+        <v>22.867000000000001</v>
       </c>
       <c r="O40">
-        <v>185.733</v>
+        <v>27.992999999999999</v>
       </c>
       <c r="P40">
-        <v>94.700999999999993</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>58.735999999999997</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41090</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>853.48400000000004</v>
+        <v>261.73500000000001</v>
       </c>
       <c r="U40">
-        <v>404.14800000000002</v>
+        <v>129.595</v>
       </c>
       <c r="V40">
-        <v>104.85299999999999</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>-22.423999999999999</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-34.173000000000002</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>89.393000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-0.42799999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>83.853999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41182</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>67.775999999999996</v>
+        <v>13.481999999999999</v>
       </c>
       <c r="D41">
-        <v>164.006</v>
+        <v>46.402000000000001</v>
       </c>
       <c r="E41">
-        <v>265.92</v>
+        <v>33.414000000000001</v>
       </c>
       <c r="F41">
-        <v>118.006</v>
+        <v>29.815999999999999</v>
       </c>
       <c r="G41">
-        <v>880.42499999999995</v>
+        <v>192.09899999999999</v>
       </c>
       <c r="H41">
-        <v>1245.5039999999999</v>
+        <v>304.928</v>
       </c>
       <c r="I41">
-        <v>23.364999999999998</v>
+        <v>12.395</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4009,128 +4105,2784 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>113.462</v>
+        <v>27.93</v>
       </c>
       <c r="O41">
-        <v>347.96499999999997</v>
+        <v>32.994</v>
       </c>
       <c r="P41">
-        <v>93.707999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>12.568</v>
+        <v>20.506</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41182</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>897.53899999999999</v>
+        <v>271.93400000000003</v>
       </c>
       <c r="U41">
-        <v>310.36799999999999</v>
+        <v>150.101</v>
       </c>
       <c r="V41">
-        <v>-48.353000000000002</v>
+        <v>27.375</v>
       </c>
       <c r="W41">
-        <v>-22.436</v>
+        <v>-4.1059999999999999</v>
       </c>
       <c r="X41">
-        <v>-33.375999999999998</v>
+        <v>-5.1150000000000002</v>
       </c>
       <c r="Y41">
-        <v>91.290999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>102.06100000000001</v>
+        <v>4.04</v>
       </c>
       <c r="AA41">
-        <v>67.775999999999996</v>
+        <v>13.481999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41274</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>20.465</v>
+      </c>
+      <c r="D42">
+        <v>48.578000000000003</v>
+      </c>
+      <c r="E42">
+        <v>31.044</v>
+      </c>
+      <c r="F42">
+        <v>31.968</v>
+      </c>
+      <c r="G42">
+        <v>178.91800000000001</v>
+      </c>
+      <c r="H42">
+        <v>279.84100000000001</v>
+      </c>
+      <c r="I42">
+        <v>12.327</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>32.26</v>
+      </c>
+      <c r="O42">
+        <v>37.124000000000002</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>-21.193000000000001</v>
+      </c>
+      <c r="R42">
+        <v>41274</v>
+      </c>
+      <c r="S42">
+        <v>240</v>
+      </c>
+      <c r="T42">
+        <v>242.71700000000001</v>
+      </c>
+      <c r="U42">
+        <v>128.90799999999999</v>
+      </c>
+      <c r="V42">
+        <v>28.312000000000001</v>
+      </c>
+      <c r="W42">
+        <v>-4.0529999999999999</v>
+      </c>
+      <c r="X42">
+        <v>-50.594999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>2.7690000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>20.465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>15.326000000000001</v>
+      </c>
+      <c r="D43">
+        <v>53.651000000000003</v>
+      </c>
+      <c r="E43">
+        <v>35.466999999999999</v>
+      </c>
+      <c r="F43">
+        <v>35.488999999999997</v>
+      </c>
+      <c r="G43">
+        <v>180.012</v>
+      </c>
+      <c r="H43">
+        <v>282.88099999999997</v>
+      </c>
+      <c r="I43">
+        <v>18.98</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>24.981999999999999</v>
+      </c>
+      <c r="O43">
+        <v>30.38</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>-2.9889999999999999</v>
+      </c>
+      <c r="R43">
+        <v>41364</v>
+      </c>
+      <c r="S43">
+        <v>306</v>
+      </c>
+      <c r="T43">
+        <v>252.501</v>
+      </c>
+      <c r="U43">
+        <v>125.919</v>
+      </c>
+      <c r="V43">
+        <v>10.279</v>
+      </c>
+      <c r="W43">
+        <v>-5.4050000000000002</v>
+      </c>
+      <c r="X43">
+        <v>-7.9269999999999996</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>33.67</v>
+      </c>
+      <c r="AA43">
+        <v>15.326000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>19.343</v>
+      </c>
+      <c r="D44">
+        <v>63.506999999999998</v>
+      </c>
+      <c r="E44">
+        <v>41.826000000000001</v>
+      </c>
+      <c r="F44">
+        <v>44.75</v>
+      </c>
+      <c r="G44">
+        <v>197.40700000000001</v>
+      </c>
+      <c r="H44">
+        <v>305.37799999999999</v>
+      </c>
+      <c r="I44">
+        <v>16.867999999999999</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>29.376999999999999</v>
+      </c>
+      <c r="O44">
+        <v>34.814</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>9.5489999999999995</v>
+      </c>
+      <c r="R44">
+        <v>41455</v>
+      </c>
+      <c r="S44">
+        <v>327</v>
+      </c>
+      <c r="T44">
+        <v>270.56400000000002</v>
+      </c>
+      <c r="U44">
+        <v>135.46799999999999</v>
+      </c>
+      <c r="V44">
+        <v>19.97</v>
+      </c>
+      <c r="W44">
+        <v>-4.8529999999999998</v>
+      </c>
+      <c r="X44">
+        <v>-3.4590000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>2.415</v>
+      </c>
+      <c r="AA44">
+        <v>19.343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>18.213999999999999</v>
+      </c>
+      <c r="D45">
+        <v>61.133000000000003</v>
+      </c>
+      <c r="E45">
+        <v>36.875999999999998</v>
+      </c>
+      <c r="F45">
+        <v>38.713999999999999</v>
+      </c>
+      <c r="G45">
+        <v>172.81399999999999</v>
+      </c>
+      <c r="H45">
+        <v>332.68799999999999</v>
+      </c>
+      <c r="I45">
+        <v>20.105</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>42.962000000000003</v>
+      </c>
+      <c r="O45">
+        <v>46.067999999999998</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-15.803000000000001</v>
+      </c>
+      <c r="R45">
+        <v>41547</v>
+      </c>
+      <c r="S45">
+        <v>295</v>
+      </c>
+      <c r="T45">
+        <v>286.62</v>
+      </c>
+      <c r="U45">
+        <v>119.009</v>
+      </c>
+      <c r="V45">
+        <v>37.08</v>
+      </c>
+      <c r="W45">
+        <v>-4.7699999999999996</v>
+      </c>
+      <c r="X45">
+        <v>-3.9969999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-44.073</v>
+      </c>
+      <c r="AA45">
+        <v>18.213000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>34.158000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>189.821</v>
+      </c>
+      <c r="H46">
+        <v>353.91</v>
+      </c>
+      <c r="I46">
+        <v>12.387</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>40.835000000000001</v>
+      </c>
+      <c r="O46">
+        <v>43.548000000000002</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>41639</v>
+      </c>
+      <c r="S46">
+        <v>293</v>
+      </c>
+      <c r="T46">
+        <v>310.36200000000002</v>
+      </c>
+      <c r="U46">
+        <v>132.691</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>17.475000000000001</v>
+      </c>
+      <c r="D47">
+        <v>62.698</v>
+      </c>
+      <c r="E47">
+        <v>39.076999999999998</v>
+      </c>
+      <c r="F47">
+        <v>39.597000000000001</v>
+      </c>
+      <c r="G47">
+        <v>199.76900000000001</v>
+      </c>
+      <c r="H47">
+        <v>346.37299999999999</v>
+      </c>
+      <c r="I47">
+        <v>18.867999999999999</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>25.39</v>
+      </c>
+      <c r="O47">
+        <v>28.111999999999998</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>-2.6459999999999999</v>
+      </c>
+      <c r="R47">
+        <v>41729</v>
+      </c>
+      <c r="S47">
+        <v>300</v>
+      </c>
+      <c r="T47">
+        <v>318.26100000000002</v>
+      </c>
+      <c r="U47">
+        <v>130.04499999999999</v>
+      </c>
+      <c r="V47">
+        <v>10.147</v>
+      </c>
+      <c r="W47">
+        <v>-6.2320000000000002</v>
+      </c>
+      <c r="X47">
+        <v>-11.916</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>3.75</v>
+      </c>
+      <c r="AA47">
+        <v>17.475000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>18.190999999999999</v>
+      </c>
+      <c r="D48">
+        <v>64.963999999999999</v>
+      </c>
+      <c r="E48">
+        <v>40.896000000000001</v>
+      </c>
+      <c r="F48">
+        <v>42.094000000000001</v>
+      </c>
+      <c r="G48">
+        <v>210.97</v>
+      </c>
+      <c r="H48">
+        <v>356.71899999999999</v>
+      </c>
+      <c r="I48">
+        <v>18.300999999999998</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>30.79</v>
+      </c>
+      <c r="O48">
+        <v>33.74</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>3.109</v>
+      </c>
+      <c r="R48">
+        <v>41820</v>
+      </c>
+      <c r="S48">
+        <v>318</v>
+      </c>
+      <c r="T48">
+        <v>322.97899999999998</v>
+      </c>
+      <c r="U48">
+        <v>133.154</v>
+      </c>
+      <c r="V48">
+        <v>26.265000000000001</v>
+      </c>
+      <c r="W48">
+        <v>-5.9320000000000004</v>
+      </c>
+      <c r="X48">
+        <v>-15.585000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-2.5209999999999999</v>
+      </c>
+      <c r="AA48">
+        <v>18.190999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>17.504000000000001</v>
+      </c>
+      <c r="D49">
+        <v>64.245000000000005</v>
+      </c>
+      <c r="E49">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="F49">
+        <v>41.296999999999997</v>
+      </c>
+      <c r="G49">
+        <v>230.56700000000001</v>
+      </c>
+      <c r="H49">
+        <v>362.90899999999999</v>
+      </c>
+      <c r="I49">
+        <v>11.282999999999999</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>33.335000000000001</v>
+      </c>
+      <c r="O49">
+        <v>36.606000000000002</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>21.946000000000002</v>
+      </c>
+      <c r="R49">
+        <v>41912</v>
+      </c>
+      <c r="S49">
+        <v>305</v>
+      </c>
+      <c r="T49">
+        <v>326.303</v>
+      </c>
+      <c r="U49">
+        <v>155.1</v>
+      </c>
+      <c r="V49">
+        <v>32.177</v>
+      </c>
+      <c r="W49">
+        <v>-5.8979999999999997</v>
+      </c>
+      <c r="X49">
+        <v>-16.46</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>8.1259999999999994</v>
+      </c>
+      <c r="AA49">
+        <v>17.504000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>21.635999999999999</v>
+      </c>
+      <c r="D50">
+        <v>70.167000000000002</v>
+      </c>
+      <c r="E50">
+        <v>33.732999999999997</v>
+      </c>
+      <c r="F50">
+        <v>46.405999999999999</v>
+      </c>
+      <c r="G50">
+        <v>245.50700000000001</v>
+      </c>
+      <c r="H50">
+        <v>379.88400000000001</v>
+      </c>
+      <c r="I50">
+        <v>11.961</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>43.210999999999999</v>
+      </c>
+      <c r="O50">
+        <v>45.676000000000002</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>13.824</v>
+      </c>
+      <c r="R50">
+        <v>42004</v>
+      </c>
+      <c r="S50">
+        <v>303</v>
+      </c>
+      <c r="T50">
+        <v>334.20800000000003</v>
+      </c>
+      <c r="U50">
+        <v>168.92400000000001</v>
+      </c>
+      <c r="V50">
+        <v>41.363</v>
+      </c>
+      <c r="W50">
+        <v>-5.8789999999999996</v>
+      </c>
+      <c r="X50">
+        <v>-16.262</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-8.2040000000000006</v>
+      </c>
+      <c r="AA50">
+        <v>21.635999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>24.593</v>
+      </c>
+      <c r="D51">
+        <v>76.771000000000001</v>
+      </c>
+      <c r="E51">
+        <v>46.061999999999998</v>
+      </c>
+      <c r="F51">
+        <v>51.259</v>
+      </c>
+      <c r="G51">
+        <v>249.852</v>
+      </c>
+      <c r="H51">
+        <v>378.69400000000002</v>
+      </c>
+      <c r="I51">
+        <v>12.756</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>31.298999999999999</v>
+      </c>
+      <c r="O51">
+        <v>34.024000000000001</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-7.8760000000000003</v>
+      </c>
+      <c r="R51">
+        <v>42094</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>344.67</v>
+      </c>
+      <c r="U51">
+        <v>161.048</v>
+      </c>
+      <c r="V51">
+        <v>10.034000000000001</v>
+      </c>
+      <c r="W51">
+        <v>-7.5170000000000003</v>
+      </c>
+      <c r="X51">
+        <v>-17.241</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>2.4039999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>24.593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>24.238</v>
+      </c>
+      <c r="D52">
+        <v>75.491</v>
+      </c>
+      <c r="E52">
+        <v>46.938000000000002</v>
+      </c>
+      <c r="F52">
+        <v>50.930999999999997</v>
+      </c>
+      <c r="G52">
+        <v>263.13499999999999</v>
+      </c>
+      <c r="H52">
+        <v>398.94600000000003</v>
+      </c>
+      <c r="I52">
+        <v>13.164</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>36.439</v>
+      </c>
+      <c r="O52">
+        <v>39.088999999999999</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>8.2149999999999999</v>
+      </c>
+      <c r="R52">
+        <v>42185</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>359.85700000000003</v>
+      </c>
+      <c r="U52">
+        <v>169.26300000000001</v>
+      </c>
+      <c r="V52">
+        <v>30.561</v>
+      </c>
+      <c r="W52">
+        <v>-7.3449999999999998</v>
+      </c>
+      <c r="X52">
+        <v>-11.583</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-6.1740000000000004</v>
+      </c>
+      <c r="AA52">
+        <v>24.238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>22.715</v>
+      </c>
+      <c r="D53">
+        <v>74.191999999999993</v>
+      </c>
+      <c r="E53">
+        <v>49.094000000000001</v>
+      </c>
+      <c r="F53">
+        <v>49.298999999999999</v>
+      </c>
+      <c r="G53">
+        <v>258.93599999999998</v>
+      </c>
+      <c r="H53">
+        <v>416.322</v>
+      </c>
+      <c r="I53">
+        <v>13.388</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>40.636000000000003</v>
+      </c>
+      <c r="O53">
+        <v>42.850999999999999</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>-8.8870000000000005</v>
+      </c>
+      <c r="R53">
+        <v>42277</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>373.471</v>
+      </c>
+      <c r="U53">
+        <v>160.376</v>
+      </c>
+      <c r="V53">
+        <v>35.743000000000002</v>
+      </c>
+      <c r="W53">
+        <v>-7.3390000000000004</v>
+      </c>
+      <c r="X53">
+        <v>-12.12</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-28.356999999999999</v>
+      </c>
+      <c r="AA53">
+        <v>22.715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>24.491</v>
+      </c>
+      <c r="D54">
+        <v>76.644000000000005</v>
+      </c>
+      <c r="E54">
+        <v>40.459000000000003</v>
+      </c>
+      <c r="F54">
+        <v>51.837000000000003</v>
+      </c>
+      <c r="G54">
+        <v>287.76100000000002</v>
+      </c>
+      <c r="H54">
+        <v>439.041</v>
+      </c>
+      <c r="I54">
+        <v>12.257</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>46.015999999999998</v>
+      </c>
+      <c r="O54">
+        <v>48.328000000000003</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>39.351999999999997</v>
+      </c>
+      <c r="R54">
+        <v>42369</v>
+      </c>
+      <c r="S54">
+        <v>342</v>
+      </c>
+      <c r="T54">
+        <v>390.71300000000002</v>
+      </c>
+      <c r="U54">
+        <v>199.72800000000001</v>
+      </c>
+      <c r="V54">
+        <v>43.857999999999997</v>
+      </c>
+      <c r="W54">
+        <v>-7.3330000000000002</v>
+      </c>
+      <c r="X54">
+        <v>-10.11</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>24.491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>28.963000000000001</v>
+      </c>
+      <c r="D55">
+        <v>88.572999999999993</v>
+      </c>
+      <c r="E55">
+        <v>52.755000000000003</v>
+      </c>
+      <c r="F55">
+        <v>59.741999999999997</v>
+      </c>
+      <c r="G55">
+        <v>278.08199999999999</v>
+      </c>
+      <c r="H55">
+        <v>451.84199999999998</v>
+      </c>
+      <c r="I55">
+        <v>15.869</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>38.823999999999998</v>
+      </c>
+      <c r="O55">
+        <v>41.426000000000002</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>-61.732999999999997</v>
+      </c>
+      <c r="R55">
+        <v>42460</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>410.416</v>
+      </c>
+      <c r="U55">
+        <v>137.995</v>
+      </c>
+      <c r="V55">
+        <v>-52.743000000000002</v>
+      </c>
+      <c r="W55">
+        <v>-9.7270000000000003</v>
+      </c>
+      <c r="X55">
+        <v>-15.324999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>12</v>
+      </c>
+      <c r="AA55">
+        <v>28.963000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>33.125999999999998</v>
+      </c>
+      <c r="D56">
+        <v>96.638999999999996</v>
+      </c>
+      <c r="E56">
+        <v>62.86</v>
+      </c>
+      <c r="F56">
+        <v>66.546999999999997</v>
+      </c>
+      <c r="G56">
+        <v>303.27800000000002</v>
+      </c>
+      <c r="H56">
+        <v>477.11500000000001</v>
+      </c>
+      <c r="I56">
+        <v>15.146000000000001</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>38.357999999999997</v>
+      </c>
+      <c r="O56">
+        <v>40.963999999999999</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>15.28</v>
+      </c>
+      <c r="R56">
+        <v>42551</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>436.15100000000001</v>
+      </c>
+      <c r="U56">
+        <v>153.27500000000001</v>
+      </c>
+      <c r="V56">
+        <v>32.646999999999998</v>
+      </c>
+      <c r="W56">
+        <v>-9.5860000000000003</v>
+      </c>
+      <c r="X56">
+        <v>-12.835000000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="AA56">
+        <v>33.125999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>30.917999999999999</v>
+      </c>
+      <c r="D57">
+        <v>90.271000000000001</v>
+      </c>
+      <c r="E57">
+        <v>56.582999999999998</v>
+      </c>
+      <c r="F57">
+        <v>62.112000000000002</v>
+      </c>
+      <c r="G57">
+        <v>305.65899999999999</v>
+      </c>
+      <c r="H57">
+        <v>502.15100000000001</v>
+      </c>
+      <c r="I57">
+        <v>15.265000000000001</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>47.445</v>
+      </c>
+      <c r="O57">
+        <v>50.451000000000001</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="R57">
+        <v>42643</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>451.7</v>
+      </c>
+      <c r="U57">
+        <v>161.44399999999999</v>
+      </c>
+      <c r="V57">
+        <v>53.235999999999997</v>
+      </c>
+      <c r="W57">
+        <v>-9.6010000000000009</v>
+      </c>
+      <c r="X57">
+        <v>-18.385000000000002</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-22.405000000000001</v>
+      </c>
+      <c r="AA57">
+        <v>30.917999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>33.164999999999999</v>
+      </c>
+      <c r="D58">
+        <v>94.436000000000007</v>
+      </c>
+      <c r="E58">
+        <v>50.667999999999999</v>
+      </c>
+      <c r="F58">
+        <v>67.457999999999998</v>
+      </c>
+      <c r="G58">
+        <v>306.06299999999999</v>
+      </c>
+      <c r="H58">
+        <v>528.04200000000003</v>
+      </c>
+      <c r="I58">
+        <v>14.882999999999999</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>57.514000000000003</v>
+      </c>
+      <c r="O58">
+        <v>60.029000000000003</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>6.7990000000000004</v>
+      </c>
+      <c r="R58">
+        <v>42735</v>
+      </c>
+      <c r="S58">
+        <v>383</v>
+      </c>
+      <c r="T58">
+        <v>468.01299999999998</v>
+      </c>
+      <c r="U58">
+        <v>168.24299999999999</v>
+      </c>
+      <c r="V58">
+        <v>56.606999999999999</v>
+      </c>
+      <c r="W58">
+        <v>-9.5809999999999995</v>
+      </c>
+      <c r="X58">
+        <v>-18.748999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-24.620999999999999</v>
+      </c>
+      <c r="AA58">
+        <v>33.164999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>42.463000000000001</v>
+      </c>
+      <c r="D59">
+        <v>102.964</v>
+      </c>
+      <c r="E59">
+        <v>56.642000000000003</v>
+      </c>
+      <c r="F59">
+        <v>71.094999999999999</v>
+      </c>
+      <c r="G59">
+        <v>286.34100000000001</v>
+      </c>
+      <c r="H59">
+        <v>530.71400000000006</v>
+      </c>
+      <c r="I59">
+        <v>15.176</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>45.168999999999997</v>
+      </c>
+      <c r="O59">
+        <v>48.359000000000002</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>-30.588000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42825</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>482.35500000000002</v>
+      </c>
+      <c r="U59">
+        <v>137.655</v>
+      </c>
+      <c r="V59">
+        <v>30.548999999999999</v>
+      </c>
+      <c r="W59">
+        <v>-12.356</v>
+      </c>
+      <c r="X59">
+        <v>-31.704999999999998</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-21.681000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>42.463000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>38.023000000000003</v>
+      </c>
+      <c r="D60">
+        <v>96.313999999999993</v>
+      </c>
+      <c r="E60">
+        <v>55.215000000000003</v>
+      </c>
+      <c r="F60">
+        <v>66.173000000000002</v>
+      </c>
+      <c r="G60">
+        <v>281.697</v>
+      </c>
+      <c r="H60">
+        <v>547.04100000000005</v>
+      </c>
+      <c r="I60">
+        <v>12.625</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>42.737000000000002</v>
+      </c>
+      <c r="O60">
+        <v>45.813000000000002</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>-9.5120000000000005</v>
+      </c>
+      <c r="R60">
+        <v>42916</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>501.22800000000001</v>
+      </c>
+      <c r="U60">
+        <v>128.143</v>
+      </c>
+      <c r="V60">
+        <v>38.569000000000003</v>
+      </c>
+      <c r="W60">
+        <v>-12.179</v>
+      </c>
+      <c r="X60">
+        <v>-23.75</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-20.178999999999998</v>
+      </c>
+      <c r="AA60">
+        <v>38.023000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="D61">
+        <v>95.584000000000003</v>
+      </c>
+      <c r="E61">
+        <v>63.027000000000001</v>
+      </c>
+      <c r="F61">
+        <v>65.063999999999993</v>
+      </c>
+      <c r="G61">
+        <v>287.13600000000002</v>
+      </c>
+      <c r="H61">
+        <v>562.34699999999998</v>
+      </c>
+      <c r="I61">
+        <v>12.714</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>48.247999999999998</v>
+      </c>
+      <c r="O61">
+        <v>51.439</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>10.849</v>
+      </c>
+      <c r="R61">
+        <v>43008</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>510.90800000000002</v>
+      </c>
+      <c r="U61">
+        <v>138.99199999999999</v>
+      </c>
+      <c r="V61">
+        <v>52.465000000000003</v>
+      </c>
+      <c r="W61">
+        <v>-12.182</v>
+      </c>
+      <c r="X61">
+        <v>-28.88</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-8.6549999999999994</v>
+      </c>
+      <c r="AA61">
+        <v>34.130000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>33.472999999999999</v>
+      </c>
+      <c r="D62">
+        <v>98.56</v>
+      </c>
+      <c r="E62">
+        <v>52.636000000000003</v>
+      </c>
+      <c r="F62">
+        <v>68.728999999999999</v>
+      </c>
+      <c r="G62">
+        <v>332.83600000000001</v>
+      </c>
+      <c r="H62">
+        <v>581.23199999999997</v>
+      </c>
+      <c r="I62">
+        <v>10.839</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>63.804000000000002</v>
+      </c>
+      <c r="O62">
+        <v>66.463999999999999</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>28.021999999999998</v>
+      </c>
+      <c r="R62">
+        <v>43100</v>
+      </c>
+      <c r="S62">
+        <v>429</v>
+      </c>
+      <c r="T62">
+        <v>514.76800000000003</v>
+      </c>
+      <c r="U62">
+        <v>167.01400000000001</v>
+      </c>
+      <c r="V62">
+        <v>46.451999999999998</v>
+      </c>
+      <c r="W62">
+        <v>-12.170999999999999</v>
+      </c>
+      <c r="X62">
+        <v>-32.732999999999997</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>22.478000000000002</v>
+      </c>
+      <c r="AA62">
+        <v>33.472999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>47.94</v>
+      </c>
+      <c r="D63">
+        <v>114.714</v>
+      </c>
+      <c r="E63">
+        <v>67.528999999999996</v>
+      </c>
+      <c r="F63">
+        <v>80.100999999999999</v>
+      </c>
+      <c r="G63">
+        <v>334.77499999999998</v>
+      </c>
+      <c r="H63">
+        <v>589.27300000000002</v>
+      </c>
+      <c r="I63">
+        <v>14.532</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>48.555</v>
+      </c>
+      <c r="O63">
+        <v>52.109000000000002</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>-10.845000000000001</v>
+      </c>
+      <c r="R63">
+        <v>43190</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>537.16399999999999</v>
+      </c>
+      <c r="U63">
+        <v>156.16900000000001</v>
+      </c>
+      <c r="V63">
+        <v>31.439</v>
+      </c>
+      <c r="W63">
+        <v>-15.814</v>
+      </c>
+      <c r="X63">
+        <v>-29.445</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-6.8369999999999997</v>
+      </c>
+      <c r="AA63">
+        <v>47.94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>40.487000000000002</v>
+      </c>
+      <c r="D64">
+        <v>106.964</v>
+      </c>
+      <c r="E64">
+        <v>61.883000000000003</v>
+      </c>
+      <c r="F64">
+        <v>74.971999999999994</v>
+      </c>
+      <c r="G64">
+        <v>352.17099999999999</v>
+      </c>
+      <c r="H64">
+        <v>617.59799999999996</v>
+      </c>
+      <c r="I64">
+        <v>19.779</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>56.625</v>
+      </c>
+      <c r="O64">
+        <v>60.22</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>14.516999999999999</v>
+      </c>
+      <c r="R64">
+        <v>43281</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>557.37800000000004</v>
+      </c>
+      <c r="U64">
+        <v>170.68600000000001</v>
+      </c>
+      <c r="V64">
+        <v>54.378999999999998</v>
+      </c>
+      <c r="W64">
+        <v>-15.536</v>
+      </c>
+      <c r="X64">
+        <v>-22.434999999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-0.02</v>
+      </c>
+      <c r="AA64">
+        <v>40.487000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>38.594000000000001</v>
+      </c>
+      <c r="D65">
+        <v>101.443</v>
+      </c>
+      <c r="E65">
+        <v>62.003999999999998</v>
+      </c>
+      <c r="F65">
+        <v>69.281999999999996</v>
+      </c>
+      <c r="G65">
+        <v>378.548</v>
+      </c>
+      <c r="H65">
+        <v>646.13099999999997</v>
+      </c>
+      <c r="I65">
+        <v>19.338999999999999</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>63.728000000000002</v>
+      </c>
+      <c r="O65">
+        <v>67.513000000000005</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>39.399000000000001</v>
+      </c>
+      <c r="R65">
+        <v>43373</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>578.61800000000005</v>
+      </c>
+      <c r="U65">
+        <v>210.08500000000001</v>
+      </c>
+      <c r="V65">
+        <v>67.994</v>
+      </c>
+      <c r="W65">
+        <v>-15.542999999999999</v>
+      </c>
+      <c r="X65">
+        <v>-20.550999999999998</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>2.84</v>
+      </c>
+      <c r="AA65">
+        <v>38.594000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>45.831000000000003</v>
+      </c>
+      <c r="D66">
+        <v>112.444</v>
+      </c>
+      <c r="E66">
+        <v>57.534999999999997</v>
+      </c>
+      <c r="F66">
+        <v>78.227000000000004</v>
+      </c>
+      <c r="G66">
+        <v>419.464</v>
+      </c>
+      <c r="H66">
+        <v>695.53899999999999</v>
+      </c>
+      <c r="I66">
+        <v>28.344999999999999</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>84.850999999999999</v>
+      </c>
+      <c r="O66">
+        <v>87.661000000000001</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>36.237000000000002</v>
+      </c>
+      <c r="R66">
+        <v>43465</v>
+      </c>
+      <c r="S66">
+        <v>454</v>
+      </c>
+      <c r="T66">
+        <v>607.87800000000004</v>
+      </c>
+      <c r="U66">
+        <v>246.322</v>
+      </c>
+      <c r="V66">
+        <v>70.105000000000004</v>
+      </c>
+      <c r="W66">
+        <v>-15.539</v>
+      </c>
+      <c r="X66">
+        <v>-20.242000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>45.831000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>52.521999999999998</v>
+      </c>
+      <c r="D67">
+        <v>124.491</v>
+      </c>
+      <c r="E67">
+        <v>70.945999999999998</v>
+      </c>
+      <c r="F67">
+        <v>86.051000000000002</v>
+      </c>
+      <c r="G67">
+        <v>438.52499999999998</v>
+      </c>
+      <c r="H67">
+        <v>774.80899999999997</v>
+      </c>
+      <c r="I67">
+        <v>13.717000000000001</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>53.040999999999997</v>
+      </c>
+      <c r="O67">
+        <v>143.66300000000001</v>
+      </c>
+      <c r="P67">
+        <v>90.844999999999999</v>
+      </c>
+      <c r="Q67">
+        <v>14.647</v>
+      </c>
+      <c r="R67">
+        <v>43555</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>631.14599999999996</v>
+      </c>
+      <c r="U67">
+        <v>260.95299999999997</v>
+      </c>
+      <c r="V67">
+        <v>39.369</v>
+      </c>
+      <c r="W67">
+        <v>-19.411999999999999</v>
+      </c>
+      <c r="X67">
+        <v>-36.226999999999997</v>
+      </c>
+      <c r="Y67">
+        <v>87.076999999999998</v>
+      </c>
+      <c r="Z67">
+        <v>14.41</v>
+      </c>
+      <c r="AA67">
+        <v>52.521999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>48.104999999999997</v>
+      </c>
+      <c r="D68">
+        <v>125.49</v>
+      </c>
+      <c r="E68">
+        <v>66.331999999999994</v>
+      </c>
+      <c r="F68">
+        <v>86.393000000000001</v>
+      </c>
+      <c r="G68">
+        <v>461.642</v>
+      </c>
+      <c r="H68">
+        <v>812.00900000000001</v>
+      </c>
+      <c r="I68">
+        <v>16.071999999999999</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>58.033000000000001</v>
+      </c>
+      <c r="O68">
+        <v>150.101</v>
+      </c>
+      <c r="P68">
+        <v>89.712000000000003</v>
+      </c>
+      <c r="Q68">
+        <v>25.207999999999998</v>
+      </c>
+      <c r="R68">
+        <v>43646</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>661.90800000000002</v>
+      </c>
+      <c r="U68">
+        <v>286.17899999999997</v>
+      </c>
+      <c r="V68">
+        <v>69.733000000000004</v>
+      </c>
+      <c r="W68">
+        <v>-18.911000000000001</v>
+      </c>
+      <c r="X68">
+        <v>-22.305</v>
+      </c>
+      <c r="Y68">
+        <v>88.257999999999996</v>
+      </c>
+      <c r="Z68">
+        <v>-11.724</v>
+      </c>
+      <c r="AA68">
+        <v>48.104999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>54.002000000000002</v>
+      </c>
+      <c r="D69">
+        <v>131.59700000000001</v>
+      </c>
+      <c r="E69">
+        <v>72.811999999999998</v>
+      </c>
+      <c r="F69">
+        <v>91.534999999999997</v>
+      </c>
+      <c r="G69">
+        <v>506.74299999999999</v>
+      </c>
+      <c r="H69">
+        <v>855.02599999999995</v>
+      </c>
+      <c r="I69">
+        <v>16.285</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>67.052999999999997</v>
+      </c>
+      <c r="O69">
+        <v>160.40299999999999</v>
+      </c>
+      <c r="P69">
+        <v>92.031000000000006</v>
+      </c>
+      <c r="Q69">
+        <v>34.329000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43738</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>694.62300000000005</v>
+      </c>
+      <c r="U69">
+        <v>320.52699999999999</v>
+      </c>
+      <c r="V69">
+        <v>67.691999999999993</v>
+      </c>
+      <c r="W69">
+        <v>-18.91</v>
+      </c>
+      <c r="X69">
+        <v>-27.527000000000001</v>
+      </c>
+      <c r="Y69">
+        <v>89.619</v>
+      </c>
+      <c r="Z69">
+        <v>4.548</v>
+      </c>
+      <c r="AA69">
+        <v>54.002000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>50.273000000000003</v>
+      </c>
+      <c r="D70">
+        <v>129.774</v>
+      </c>
+      <c r="E70">
+        <v>62.017000000000003</v>
+      </c>
+      <c r="F70">
+        <v>89.501999999999995</v>
+      </c>
+      <c r="G70">
+        <v>456.05399999999997</v>
+      </c>
+      <c r="H70">
+        <v>954.93</v>
+      </c>
+      <c r="I70">
+        <v>20.021000000000001</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>86.847999999999999</v>
+      </c>
+      <c r="O70">
+        <v>184.839</v>
+      </c>
+      <c r="P70">
+        <v>97.991</v>
+      </c>
+      <c r="Q70">
+        <v>-47.389000000000003</v>
+      </c>
+      <c r="R70">
+        <v>43830</v>
+      </c>
+      <c r="S70">
+        <v>527</v>
+      </c>
+      <c r="T70">
+        <v>770.09100000000001</v>
+      </c>
+      <c r="U70">
+        <v>270.12400000000002</v>
+      </c>
+      <c r="V70">
+        <v>89.141000000000005</v>
+      </c>
+      <c r="W70">
+        <v>-18.998000000000001</v>
+      </c>
+      <c r="X70">
+        <v>-32.040999999999997</v>
+      </c>
+      <c r="Y70">
+        <v>97.991</v>
+      </c>
+      <c r="Z70">
+        <v>2.875</v>
+      </c>
+      <c r="AA70">
+        <v>50.273000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>74.816000000000003</v>
+      </c>
+      <c r="D71">
+        <v>168.97800000000001</v>
+      </c>
+      <c r="E71">
+        <v>93.572000000000003</v>
+      </c>
+      <c r="F71">
+        <v>119.623</v>
+      </c>
+      <c r="G71">
+        <v>512.50099999999998</v>
+      </c>
+      <c r="H71">
+        <v>975.60299999999995</v>
+      </c>
+      <c r="I71">
+        <v>27.385000000000002</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>85.724999999999994</v>
+      </c>
+      <c r="O71">
+        <v>177.72</v>
+      </c>
+      <c r="P71">
+        <v>96.301000000000002</v>
+      </c>
+      <c r="Q71">
+        <v>91.744</v>
+      </c>
+      <c r="R71">
+        <v>43921</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>797.88300000000004</v>
+      </c>
+      <c r="U71">
+        <v>363.81099999999998</v>
+      </c>
+      <c r="V71">
+        <v>120.369</v>
+      </c>
+      <c r="W71">
+        <v>-23.244</v>
+      </c>
+      <c r="X71">
+        <v>-49.822000000000003</v>
+      </c>
+      <c r="Y71">
+        <v>88.045000000000002</v>
+      </c>
+      <c r="Z71">
+        <v>36.158999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>74.816000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>83.853999999999999</v>
+      </c>
+      <c r="D72">
+        <v>184.79499999999999</v>
+      </c>
+      <c r="E72">
+        <v>99.221999999999994</v>
+      </c>
+      <c r="F72">
+        <v>134.56700000000001</v>
+      </c>
+      <c r="G72">
+        <v>573.69299999999998</v>
+      </c>
+      <c r="H72">
+        <v>1039.2170000000001</v>
+      </c>
+      <c r="I72">
+        <v>22.623999999999999</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>92.272000000000006</v>
+      </c>
+      <c r="O72">
+        <v>185.733</v>
+      </c>
+      <c r="P72">
+        <v>94.700999999999993</v>
+      </c>
+      <c r="Q72">
+        <v>58.735999999999997</v>
+      </c>
+      <c r="R72">
+        <v>44012</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>853.48400000000004</v>
+      </c>
+      <c r="U72">
+        <v>404.14800000000002</v>
+      </c>
+      <c r="V72">
+        <v>104.85299999999999</v>
+      </c>
+      <c r="W72">
+        <v>-22.423999999999999</v>
+      </c>
+      <c r="X72">
+        <v>-34.173000000000002</v>
+      </c>
+      <c r="Y72">
+        <v>89.393000000000001</v>
+      </c>
+      <c r="Z72">
+        <v>-0.42799999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>83.853999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>67.775999999999996</v>
+      </c>
+      <c r="D73">
+        <v>164.006</v>
+      </c>
+      <c r="E73">
+        <v>265.92</v>
+      </c>
+      <c r="F73">
+        <v>118.006</v>
+      </c>
+      <c r="G73">
+        <v>880.42499999999995</v>
+      </c>
+      <c r="H73">
+        <v>1245.5039999999999</v>
+      </c>
+      <c r="I73">
+        <v>23.364999999999998</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>113.462</v>
+      </c>
+      <c r="O73">
+        <v>347.96499999999997</v>
+      </c>
+      <c r="P73">
+        <v>93.707999999999998</v>
+      </c>
+      <c r="Q73">
+        <v>12.568</v>
+      </c>
+      <c r="R73">
+        <v>44104</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>897.53899999999999</v>
+      </c>
+      <c r="U73">
+        <v>310.36799999999999</v>
+      </c>
+      <c r="V73">
+        <v>-48.353000000000002</v>
+      </c>
+      <c r="W73">
+        <v>-22.436</v>
+      </c>
+      <c r="X73">
+        <v>-33.375999999999998</v>
+      </c>
+      <c r="Y73">
+        <v>91.290999999999997</v>
+      </c>
+      <c r="Z73">
+        <v>102.06100000000001</v>
+      </c>
+      <c r="AA73">
+        <v>67.775999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
         <v>72.930999999999997</v>
       </c>
-      <c r="D42">
+      <c r="D74">
         <v>171.346</v>
       </c>
-      <c r="E42">
+      <c r="E74">
         <v>167.262</v>
       </c>
-      <c r="F42">
+      <c r="F74">
         <v>125.952</v>
       </c>
-      <c r="G42">
+      <c r="G74">
         <v>927.55899999999997</v>
       </c>
-      <c r="H42">
+      <c r="H74">
         <v>1331.4290000000001</v>
       </c>
-      <c r="I42">
+      <c r="I74">
         <v>43.548999999999999</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
         <v>161.56100000000001</v>
       </c>
-      <c r="O42">
+      <c r="O74">
         <v>376.36799999999999</v>
       </c>
-      <c r="P42">
+      <c r="P74">
         <v>93.611999999999995</v>
       </c>
-      <c r="Q42">
+      <c r="Q74">
         <v>170.749</v>
       </c>
-      <c r="R42">
+      <c r="R74">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S74">
         <v>606</v>
       </c>
-      <c r="T42">
+      <c r="T74">
         <v>955.06100000000004</v>
       </c>
-      <c r="U42">
+      <c r="U74">
         <v>460.858</v>
       </c>
-      <c r="V42">
+      <c r="V74">
         <v>227.62</v>
       </c>
-      <c r="W42">
+      <c r="W74">
         <v>-22.462</v>
       </c>
-      <c r="X42">
+      <c r="X74">
         <v>-27.741</v>
       </c>
-      <c r="Y42">
+      <c r="Y74">
         <v>81.480999999999995</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
         <v>72.930999999999997</v>
       </c>
     </row>
